--- a/luban/MiniTemplate/Datas/__enums__.xlsx
+++ b/luban/MiniTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,33 +139,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,14 +166,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +181,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +189,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +197,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +205,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,14 +213,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +228,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +236,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -251,14 +244,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,47 +259,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,148 +619,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,55 +779,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1112,20 +1099,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.8761904761905" customWidth="1"/>
-    <col min="4" max="5" width="14.1238095238095" customWidth="1"/>
-    <col min="6" max="6" width="9.37142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5047619047619" customWidth="1"/>
-    <col min="9" max="9" width="5.24761904761905" customWidth="1"/>
-    <col min="10" max="10" width="12.1238095238095" customWidth="1"/>
-    <col min="11" max="11" width="15.1238095238095" customWidth="1"/>
+    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/luban/MiniTemplate/Datas/__enums__.xlsx
+++ b/luban/MiniTemplate/Datas/__enums__.xlsx
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
